--- a/datamining/final_data/sum1959_nltk.xlsx
+++ b/datamining/final_data/sum1959_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CL2"/>
+  <dimension ref="A1:BT2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,440 +442,350 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>and</t>
+          <t>art</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>art</t>
+          <t>child</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>gifted</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>gifted</t>
+          <t>identifying</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>identifying</t>
+          <t>motivating</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>read</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>motivating</t>
+          <t>want</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>contributing</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>read</t>
+          <t>factors</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>learner</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>will</t>
+          <t>rapid</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>underachievement</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>continuum</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>contributing</t>
+          <t>high</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>factors</t>
+          <t>school-college</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>learner</t>
+          <t>page</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>rapid</t>
+          <t>parents</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>languages</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>underachievement</t>
+          <t>consultant</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>continuum</t>
+          <t>curriculum</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>enrichment</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>implementing</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>school-college</t>
+          <t>enigma</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>page</t>
+          <t>new</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>parents</t>
+          <t>pope</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>languages</t>
+          <t>seen</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>consultant</t>
+          <t>guidance</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>curriculum</t>
+          <t>dilemma</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>enrichment</t>
+          <t>terminology</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>implementing</t>
+          <t>able</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>through</t>
+          <t>program</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>enigma</t>
+          <t>affiliated</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>brief-history</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>of</t>
+          <t>formation</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>pope</t>
+          <t>groups</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>seen</t>
+          <t>national-association-for-gifted-children</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>guidance</t>
+          <t>suggestions</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>dilemma</t>
+          <t>challenge</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>terminology</t>
+          <t>speech</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>able</t>
+          <t>concert</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>contrasting</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>affiliated</t>
+          <t>experiences</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>brief-history</t>
+          <t>maturational</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>formation</t>
+          <t>pianists</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>groups</t>
+          <t>feature</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>national-association-for-gifted-children</t>
+          <t>teachers</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>suggestions</t>
+          <t>book</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>with</t>
+          <t>brumbaugh</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>challenge</t>
+          <t>fn</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>speech</t>
+          <t>gifted-child</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>concert</t>
+          <t>guide</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>contrasting</t>
+          <t>review</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>experiences</t>
+          <t>roshco</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>maturational</t>
+          <t>gifted-children</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>pianists</t>
+          <t>helping</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>feature</t>
+          <t>community</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>teachers</t>
+          <t>done</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>local</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>nagc</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>brumbaugh</t>
+          <t>reasons</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>fn</t>
+          <t>eldorado</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>gifted-child</t>
+          <t>school</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>guide</t>
+          <t>bright</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>review</t>
+          <t>children</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>roshco</t>
+          <t>experience</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>your</t>
+          <t>science</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>gifted-children</t>
+          <t>summer</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>helping</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>state</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>can</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>community</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>local</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>more</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>nagc</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>own</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>reasons</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>what</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>eldorado</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>school</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>bright</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>children</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>experience</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
-        <is>
-          <t>science</t>
-        </is>
-      </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>summer</t>
-        </is>
-      </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>movement</t>
-        </is>
-      </c>
-      <c r="CK1" s="1" t="inlineStr">
-        <is>
-          <t>state</t>
-        </is>
-      </c>
-      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>york</t>
         </is>
@@ -889,267 +799,213 @@
         <v>1959</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8</v>
+        <v>0.52</v>
       </c>
       <c r="D2" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="J2" t="n">
         <v>0.45</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
         <v>0.45</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>0.45</v>
       </c>
-      <c r="J2" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.02</v>
-      </c>
       <c r="M2" t="n">
-        <v>1.68</v>
+        <v>0.45</v>
       </c>
       <c r="N2" t="n">
-        <v>2.02</v>
+        <v>0.45</v>
       </c>
       <c r="O2" t="n">
-        <v>1.15</v>
+        <v>0.57</v>
       </c>
       <c r="P2" t="n">
-        <v>0.39</v>
+        <v>0.57</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.39</v>
+        <v>0.57</v>
       </c>
       <c r="R2" t="n">
-        <v>0.39</v>
+        <v>0.79</v>
       </c>
       <c r="S2" t="n">
-        <v>0.39</v>
+        <v>0.9</v>
       </c>
       <c r="T2" t="n">
-        <v>0.39</v>
+        <v>0.96</v>
       </c>
       <c r="U2" t="n">
-        <v>0.39</v>
+        <v>0.53</v>
       </c>
       <c r="V2" t="n">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="W2" t="n">
-        <v>1.56</v>
+        <v>0.85</v>
       </c>
       <c r="X2" t="n">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.87</v>
+        <v>0.52</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.86</v>
+        <v>0.52</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.46</v>
+        <v>0.96</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.46</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.46</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.46</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.78</v>
+        <v>0.42</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.17</v>
+        <v>0.42</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.47</v>
+        <v>0.66</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.86</v>
+        <v>0.42</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.34</v>
+        <v>0.45</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.34</v>
+        <v>0.45</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.34</v>
+        <v>0.45</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.34</v>
+        <v>0.71</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.63</v>
+        <v>0.36</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.63</v>
+        <v>0.36</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.43</v>
+        <v>0.71</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.43</v>
+        <v>0.71</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.71</v>
+        <v>0.42</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.71</v>
+        <v>0.42</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.32</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.32</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.32</v>
+        <v>0.44</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.32</v>
+        <v>0.44</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.32</v>
+        <v>0.44</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.71</v>
+        <v>0.44</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.71</v>
+        <v>0.52</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.3</v>
+        <v>0.52</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="CL2" t="n">
         <v>0.52</v>
       </c>
     </row>
